--- a/resources/MonthlyReturns.xlsx
+++ b/resources/MonthlyReturns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Tiberium\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A964F4E-4FC7-45B9-9756-8C479486A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BD8251-C197-449C-8579-67D334C960B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Months</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -69,14 +66,20 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>Tiberium</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>MSCI Singapore ETF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +99,81 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC2C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,13 +203,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,367 +524,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11.09</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>13.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>-3.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.34</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.48</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>14.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-28.32</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.99</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>22.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>-13.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11.11</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>-15.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.38</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>32.090000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.9</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.65</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>39.770000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>-41.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-11.77</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>-45.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20.18</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>13.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.66</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>-40.659999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.66</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>21.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.41</v>
+      </c>
+      <c r="D20" s="10">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1">
-        <v>-7.56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>-8.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.93</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
-        <v>13.38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>-45.95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
-        <v>47.74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.48</v>
+      </c>
+      <c r="D25" s="12">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22.72</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>-21.15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-26.76</v>
+      </c>
+      <c r="D27" s="10">
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.67</v>
+      </c>
+      <c r="D28" s="10">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>42.02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.89</v>
+      </c>
+      <c r="D29" s="10">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1">
-        <v>-9.68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.96</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2019</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
-        <v>27.33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.17</v>
+      </c>
+      <c r="D31" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2019</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.97</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2019</v>
       </c>
@@ -788,183 +992,458 @@
         <v>9</v>
       </c>
       <c r="C33" s="1">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.63</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2019</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23.9</v>
+      </c>
+      <c r="D34" s="10">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2019</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D35" s="10">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
-        <v>9.17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27.33</v>
+      </c>
+      <c r="D36" s="8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2019</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-9.68</v>
+      </c>
+      <c r="D37" s="10">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42.02</v>
+      </c>
+      <c r="D38" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.94</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>-26.76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-21.15</v>
+      </c>
+      <c r="D40" s="13">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>22.72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.78</v>
+      </c>
+      <c r="D41" s="8">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1">
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47.74</v>
+      </c>
+      <c r="D42" s="12">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-45.95</v>
+      </c>
+      <c r="D43" s="8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.38</v>
+      </c>
+      <c r="D44" s="10">
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-8.4</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-7.56</v>
+      </c>
+      <c r="D46" s="10">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1">
+        <v>21.72</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="D48" s="10">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-40.659999999999997</v>
+      </c>
+      <c r="D49" s="10">
+        <v>-5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>13.68</v>
+      </c>
+      <c r="D50" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-45.33</v>
+      </c>
+      <c r="D51" s="13">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-41.6</v>
+      </c>
+      <c r="D52" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>39.770000000000003</v>
+      </c>
+      <c r="D53" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8.33</v>
+      </c>
+      <c r="D55" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1">
-        <v>13.41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1">
-        <v>6.66</v>
+      <c r="C56" s="1">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="D56" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1">
+        <v>-15.5</v>
+      </c>
+      <c r="D57" s="12">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-13.83</v>
+      </c>
+      <c r="D58" s="13">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>22.65</v>
+      </c>
+      <c r="D59" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>14.53</v>
+      </c>
+      <c r="D61" s="8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-3.85</v>
+      </c>
+      <c r="D63" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>13.49</v>
+      </c>
+      <c r="D64" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4.83</v>
+      </c>
+      <c r="D65" s="8">
+        <v>9.1999999999999993</v>
       </c>
     </row>
   </sheetData>
